--- a/teaching/traditional_assets/database/data/pakistan/pakistan_cable_tv.xlsx
+++ b/teaching/traditional_assets/database/data/pakistan/pakistan_cable_tv.xlsx
@@ -591,34 +591,34 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.06709999999999999</v>
+        <v>0.0576</v>
       </c>
       <c r="G2">
-        <v>-0.05809859154929577</v>
+        <v>-0.0587188612099644</v>
       </c>
       <c r="H2">
-        <v>-0.05809859154929577</v>
+        <v>-0.0587188612099644</v>
       </c>
       <c r="I2">
-        <v>-0.152112676056338</v>
+        <v>-0.1516014234875445</v>
       </c>
       <c r="J2">
-        <v>-0.152112676056338</v>
+        <v>-0.1516014234875445</v>
       </c>
       <c r="K2">
-        <v>-5.37</v>
+        <v>-4.8</v>
       </c>
       <c r="L2">
-        <v>-0.1890845070422535</v>
+        <v>-0.1708185053380783</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.301</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.009376947040498441</v>
       </c>
       <c r="O2">
-        <v>-0</v>
+        <v>-0.06270833333333334</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -630,76 +630,79 @@
         <v>-0</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.301</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
       </c>
       <c r="U2">
-        <v>1.13</v>
+        <v>2.17</v>
       </c>
       <c r="V2">
-        <v>0.05765306122448979</v>
+        <v>0.067601246105919</v>
       </c>
       <c r="W2">
-        <v>-0.1832764505119454</v>
+        <v>-0.1983471074380165</v>
       </c>
       <c r="X2">
-        <v>0.1442215269813371</v>
+        <v>0.1106098379797862</v>
       </c>
       <c r="Y2">
-        <v>-0.3274979774932825</v>
+        <v>-0.3089569454178028</v>
       </c>
       <c r="Z2">
-        <v>0.7904258279988867</v>
+        <v>0.9234308248439042</v>
       </c>
       <c r="AA2">
-        <v>-0.1202337879209574</v>
+        <v>-0.1399934275386132</v>
       </c>
       <c r="AB2">
-        <v>0.1162636729962405</v>
+        <v>0.09880792848657749</v>
       </c>
       <c r="AC2">
-        <v>-0.2364974609171979</v>
+        <v>-0.2388013560251907</v>
       </c>
       <c r="AD2">
-        <v>10.1</v>
+        <v>8.48</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>10.1</v>
+        <v>8.48</v>
       </c>
       <c r="AG2">
-        <v>8.969999999999999</v>
+        <v>6.31</v>
       </c>
       <c r="AH2">
-        <v>0.34006734006734</v>
+        <v>0.2089699359290291</v>
       </c>
       <c r="AI2">
-        <v>0.3519163763066201</v>
+        <v>0.3478260869565217</v>
       </c>
       <c r="AJ2">
-        <v>0.3139656982849142</v>
+        <v>0.1642801353814111</v>
       </c>
       <c r="AK2">
-        <v>0.3253536452665941</v>
+        <v>0.2841062584421432</v>
       </c>
       <c r="AL2">
-        <v>1.13</v>
+        <v>1.36</v>
       </c>
       <c r="AM2">
-        <v>0.7719999999999999</v>
+        <v>1.024</v>
       </c>
       <c r="AN2">
-        <v>-3.811320754716981</v>
+        <v>-3.039426523297491</v>
       </c>
       <c r="AO2">
-        <v>-3.823008849557523</v>
+        <v>-3.13235294117647</v>
       </c>
       <c r="AP2">
-        <v>-3.384905660377358</v>
+        <v>-2.261648745519714</v>
       </c>
       <c r="AQ2">
-        <v>-5.595854922279794</v>
+        <v>-4.16015625</v>
       </c>
     </row>
     <row r="3">
@@ -719,34 +722,34 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.06709999999999999</v>
+        <v>0.0576</v>
       </c>
       <c r="G3">
-        <v>-0.05809859154929577</v>
+        <v>-0.0587188612099644</v>
       </c>
       <c r="H3">
-        <v>-0.05809859154929577</v>
+        <v>-0.0587188612099644</v>
       </c>
       <c r="I3">
-        <v>-0.152112676056338</v>
+        <v>-0.1516014234875445</v>
       </c>
       <c r="J3">
-        <v>-0.152112676056338</v>
+        <v>-0.1516014234875445</v>
       </c>
       <c r="K3">
-        <v>-5.37</v>
+        <v>-4.8</v>
       </c>
       <c r="L3">
-        <v>-0.1890845070422535</v>
+        <v>-0.1708185053380783</v>
       </c>
       <c r="M3">
-        <v>-0</v>
+        <v>0.301</v>
       </c>
       <c r="N3">
-        <v>-0</v>
+        <v>0.009376947040498441</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>-0.06270833333333334</v>
       </c>
       <c r="P3">
         <v>-0</v>
@@ -758,76 +761,79 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>0.301</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
       </c>
       <c r="U3">
-        <v>1.13</v>
+        <v>2.17</v>
       </c>
       <c r="V3">
-        <v>0.05765306122448979</v>
+        <v>0.067601246105919</v>
       </c>
       <c r="W3">
-        <v>-0.1832764505119454</v>
+        <v>-0.1983471074380165</v>
       </c>
       <c r="X3">
-        <v>0.1442215269813371</v>
+        <v>0.1106098379797862</v>
       </c>
       <c r="Y3">
-        <v>-0.3274979774932825</v>
+        <v>-0.3089569454178028</v>
       </c>
       <c r="Z3">
-        <v>0.7904258279988867</v>
+        <v>0.9234308248439042</v>
       </c>
       <c r="AA3">
-        <v>-0.1202337879209574</v>
+        <v>-0.1399934275386132</v>
       </c>
       <c r="AB3">
-        <v>0.1162636729962405</v>
+        <v>0.09880792848657749</v>
       </c>
       <c r="AC3">
-        <v>-0.2364974609171979</v>
+        <v>-0.2388013560251907</v>
       </c>
       <c r="AD3">
-        <v>10.1</v>
+        <v>8.48</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>10.1</v>
+        <v>8.48</v>
       </c>
       <c r="AG3">
-        <v>8.969999999999999</v>
+        <v>6.31</v>
       </c>
       <c r="AH3">
-        <v>0.34006734006734</v>
+        <v>0.2089699359290291</v>
       </c>
       <c r="AI3">
-        <v>0.3519163763066201</v>
+        <v>0.3478260869565217</v>
       </c>
       <c r="AJ3">
-        <v>0.3139656982849142</v>
+        <v>0.1642801353814111</v>
       </c>
       <c r="AK3">
-        <v>0.3253536452665941</v>
+        <v>0.2841062584421432</v>
       </c>
       <c r="AL3">
-        <v>1.13</v>
+        <v>1.36</v>
       </c>
       <c r="AM3">
-        <v>0.7719999999999999</v>
+        <v>1.024</v>
       </c>
       <c r="AN3">
-        <v>-3.811320754716981</v>
+        <v>-3.039426523297491</v>
       </c>
       <c r="AO3">
-        <v>-3.823008849557523</v>
+        <v>-3.13235294117647</v>
       </c>
       <c r="AP3">
-        <v>-3.384905660377358</v>
+        <v>-2.261648745519714</v>
       </c>
       <c r="AQ3">
-        <v>-5.595854922279794</v>
+        <v>-4.16015625</v>
       </c>
     </row>
   </sheetData>
